--- a/entries3.xlsx
+++ b/entries3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/carezoom_frontend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/carezoom_copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="455">
   <si>
     <t>title</t>
   </si>
@@ -1927,6 +1927,12 @@
   <si>
     <t xml:space="preserve"> ▪ Boston Medical Center is the largest safety net hospital in the New England region.</t>
   </si>
+  <si>
+    <t>Search Terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags </t>
+  </si>
 </sst>
 </file>
 
@@ -2481,9 +2487,9 @@
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2614,8 +2620,12 @@
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
